--- a/sql/测试用例.xlsx
+++ b/sql/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17060"/>
+    <workbookView windowWidth="25600" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>序号</t>
   </si>
@@ -147,6 +147,48 @@
     <t>正确修改后，重新登录，用新密码能登录、老密码不能登录</t>
   </si>
   <si>
+    <t>站内信（消息中心）</t>
+  </si>
+  <si>
+    <t>查看站内信列表</t>
+  </si>
+  <si>
+    <t>点击站内信按钮，应能显示站内信列表。有未读消息的，按钮右上角显示未读消息数量。未读消息的闹钟是红色，已读消息是绿色。</t>
+  </si>
+  <si>
+    <t>本页已读</t>
+  </si>
+  <si>
+    <t>点击本页已读后，本页展示的站内信应全部变为已读。未读信息数量减少</t>
+  </si>
+  <si>
+    <t>全部已读</t>
+  </si>
+  <si>
+    <t>点击全部已读后，该用户所有的站内信变为已读。未读信息数量为0</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>点击刷新后，应显示刷新后的站内信列表</t>
+  </si>
+  <si>
+    <t>未读置顶</t>
+  </si>
+  <si>
+    <t>选中未读置顶后，未读信息靠前显示。</t>
+  </si>
+  <si>
+    <t>未选中未读置顶的，信息按时间倒序显示。</t>
+  </si>
+  <si>
+    <t>单个标记为已读</t>
+  </si>
+  <si>
+    <t>点击单个站内信的 标为已读按钮，该信息变为已读，但是不修改信息排序。未读信息数量减少</t>
+  </si>
+  <si>
     <t>系统管理--参数配置</t>
   </si>
   <si>
@@ -168,10 +210,106 @@
     <t>邮箱相关参数完整、且邮件发送功能为启用状态，且点击刷新缓存后，可发送测试邮件到指定邮箱。</t>
   </si>
   <si>
-    <t>刷新</t>
-  </si>
-  <si>
     <t>点击取消修改按钮，可以刷新参数、并重置修改未提交的参数，且保存按钮不可用。</t>
+  </si>
+  <si>
+    <t>系统管理--角色管理</t>
+  </si>
+  <si>
+    <t>角色列表查看</t>
+  </si>
+  <si>
+    <t>点击角色管理，可以显示角色列表，至少有一个角色：超级管理员（内置角色）</t>
+  </si>
+  <si>
+    <t>角色列表查询</t>
+  </si>
+  <si>
+    <t>搜索角色名称、角色代码，可以全模糊匹配。</t>
+  </si>
+  <si>
+    <t>点击重置，可以清空搜索条件，并显示所有角色</t>
+  </si>
+  <si>
+    <t>新增角色</t>
+  </si>
+  <si>
+    <t>点击新增按钮，填入角色名称、角色代码，可以新增角色</t>
+  </si>
+  <si>
+    <t>名称：测试角色 代码：tester</t>
+  </si>
+  <si>
+    <t>修改角色</t>
+  </si>
+  <si>
+    <t>单选一个角色，可以修改角色任意字段。</t>
+  </si>
+  <si>
+    <t>选中菜单权限保存后，提示修改成功。再次打开修改页面，菜单权限应处于选中状态。</t>
+  </si>
+  <si>
+    <t>取消选中菜单权限保存后，提示修改成功。再次打开修改页面，菜单权限应处于未选择状态。</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>点击删除按钮，应出现弹窗确认。点击确定后应执行删除。</t>
+  </si>
+  <si>
+    <t>删除规则：不能删除超级管理员权限。</t>
+  </si>
+  <si>
+    <t>系统管理--用户管理</t>
+  </si>
+  <si>
+    <t>用户列表查看</t>
+  </si>
+  <si>
+    <t>点击用户管理按钮，应显示用户列表</t>
+  </si>
+  <si>
+    <t>用户列表查询</t>
+  </si>
+  <si>
+    <t>可以按用户名、昵称模糊搜索</t>
+  </si>
+  <si>
+    <t>点击重置，可以清空搜索条件，并显示所有用户</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>点击新增按钮，可以新增用户。其中用户名、昵称、密码、确认密码、角色、用户状态为必填项。角色是多选。</t>
+  </si>
+  <si>
+    <t>规则：不能与已有用户同名。</t>
+  </si>
+  <si>
+    <t>修改用户</t>
+  </si>
+  <si>
+    <t>可以重置密码。重置密码后对应用户可以收到站内信通知。</t>
+  </si>
+  <si>
+    <t>可以修改用户任何信息，校验规则与新增用户相同。</t>
+  </si>
+  <si>
+    <t>修改规则：非超级管理员，不能修改超级管理员用户。</t>
+  </si>
+  <si>
+    <t>修改规则：不能修改自己的账号信息。</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>删除规则：不能删除自己的账号。</t>
+  </si>
+  <si>
+    <t>删除规则：非超级管理员，不能删除超级管理员用户。</t>
   </si>
 </sst>
 </file>
@@ -179,8 +317,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -223,11 +361,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,23 +377,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -271,7 +393,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,29 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -317,9 +462,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,21 +482,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,19 +492,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,163 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +756,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -650,8 +812,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -671,183 +835,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,11 +1004,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,12 +1353,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1235,7 +1391,9 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1245,25 +1403,29 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="53" spans="1:6">
-      <c r="A3" s="2"/>
+    <row r="3" ht="36" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1271,13 +1433,15 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" ht="36" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1457,9 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" ht="53" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1307,7 +1473,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" ht="53" spans="1:6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1321,7 +1489,9 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1333,7 +1503,9 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" ht="36" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1347,7 +1519,9 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1535,9 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -1373,7 +1549,9 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
@@ -1383,7 +1561,9 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
@@ -1393,7 +1573,9 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
@@ -1403,7 +1585,9 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
@@ -1413,7 +1597,9 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
@@ -1423,7 +1609,9 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
@@ -1433,7 +1621,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
@@ -1443,7 +1633,9 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -1455,7 +1647,9 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
@@ -1465,7 +1659,9 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
@@ -1475,11 +1671,13 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1489,270 +1687,434 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>47</v>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
@@ -1852,16 +2214,97 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B10:B21"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B54"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://localhost:9528/"/>
